--- a/derivatives/palm_data/design_average.xlsx
+++ b/derivatives/palm_data/design_average.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/Documents_Air/GitHub/istart-socdoors/derivatives/palm_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68189221-747C-C04B-B263-6B623A28A2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB7BE8-C861-314A-80B5-0D54A2594627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="7180" windowWidth="14400" windowHeight="9660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="model-2 social" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="16">
   <si>
     <t>sub</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>RS_linear</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>SubstanceUse</t>
   </si>
 </sst>
 </file>
@@ -504,15 +513,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,127 +550,139 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>3206</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>3.4601606E-2</v>
+        <v>-1.866657842</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.61105751200000002</v>
+        <v>1.205168003</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.47727269999999999</v>
+        <v>0.52272726999999997</v>
       </c>
       <c r="F2" s="2">
-        <v>-7.8853305999999996</v>
+        <v>-7.8398760000000003</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2">
-        <v>2.19133822</v>
-      </c>
-      <c r="I2" s="2">
-        <v>-1.5209953000000001</v>
+        <v>0.47801497999999998</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J2" s="2">
-        <v>-14.187262</v>
-      </c>
-      <c r="K2">
-        <v>61.726565999999998</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>-0.22525790000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-0.65541430000000001</v>
+      </c>
+      <c r="L2">
+        <v>167.91920400000001</v>
+      </c>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>3189</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>0.514842723</v>
+        <v>-1.022839737</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.60672387999999999</v>
+        <v>1.4143213429999999</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.47727269999999999</v>
+        <v>0.52272726999999997</v>
       </c>
       <c r="F3" s="2">
-        <v>-7.8853305999999996</v>
+        <v>-7.8398760000000003</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <v>0.35171530000000001</v>
-      </c>
-      <c r="I3" s="2">
-        <v>-0.6429935</v>
+        <v>5.7142699999999996E-3</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J3" s="2">
-        <v>0.31877253</v>
-      </c>
-      <c r="K3">
-        <v>174.36840100000001</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>-0.47214230000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.0473647700000002</v>
+      </c>
+      <c r="L3">
+        <v>168.501</v>
+      </c>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1255</v>
+        <v>1004</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.58757288399999996</v>
+        <v>-0.72471277000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>3.8390036000000002E-2</v>
+        <v>-0.432496557</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.47727269999999999</v>
+        <v>2.5227272699999999</v>
       </c>
       <c r="F4" s="2">
-        <v>-7.8853305999999996</v>
+        <v>-1.7489669000000001</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="2">
-        <v>0.28909469999999998</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-0.61310640000000005</v>
+        <v>-0.27766619999999997</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J4" s="2">
-        <v>0.81255668000000003</v>
-      </c>
-      <c r="K4">
-        <v>63.745367999999999</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>-1.1756053</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.5777928700000001</v>
+      </c>
+      <c r="L4">
+        <v>71.615228999999999</v>
+      </c>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1006</v>
       </c>
@@ -683,278 +707,302 @@
       <c r="H5" s="2">
         <v>-1.1278074</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2">
         <v>6.3142390000000007E-2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>11.9852984</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>104.61701499999999</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1286</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>-0.429013478</v>
+        <v>0.19368943799999999</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.76928423700000004</v>
+        <v>0.107142852</v>
       </c>
       <c r="E6" s="2">
-        <v>0.52272726999999997</v>
+        <v>1.5227272700000001</v>
       </c>
       <c r="F6" s="2">
-        <v>-7.8398760000000003</v>
+        <v>-5.7944215000000003</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="2">
-        <v>-0.84442700000000004</v>
-      </c>
-      <c r="I6" s="2">
-        <v>-0.91653439999999997</v>
+        <v>-1.1278074</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J6" s="2">
-        <v>9.7123670299999993</v>
-      </c>
-      <c r="K6">
-        <v>180.521061</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>-2.1924725</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9.6271556</v>
+      </c>
+      <c r="L6">
+        <v>151.21848199999999</v>
+      </c>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>-1.022839737</v>
+        <v>-2.1857333520000002</v>
       </c>
       <c r="D7" s="2">
-        <v>1.4143213429999999</v>
+        <v>2.2444299010000002</v>
       </c>
       <c r="E7" s="2">
-        <v>0.52272726999999997</v>
+        <v>-1.4772727000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>-7.8398760000000003</v>
+        <v>-5.9307850999999996</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>5.7142699999999996E-3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>-0.47214230000000001</v>
+        <v>3.4015796800000002</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J7" s="2">
-        <v>3.0473647700000002</v>
-      </c>
-      <c r="K7">
-        <v>168.501</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>-5.5001901999999996</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-17.081873999999999</v>
+      </c>
+      <c r="L7">
+        <v>143.37455600000001</v>
+      </c>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>-1.866657842</v>
+        <v>0.94756060499999994</v>
       </c>
       <c r="D8" s="2">
-        <v>1.205168003</v>
+        <v>-0.56303946599999999</v>
       </c>
       <c r="E8" s="2">
-        <v>0.52272726999999997</v>
+        <v>-4.4772727000000003</v>
       </c>
       <c r="F8" s="2">
-        <v>-7.8398760000000003</v>
+        <v>11.9328512</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
-        <v>0.47801497999999998</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-0.22525790000000001</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J8" s="2">
-        <v>-0.65541430000000001</v>
-      </c>
-      <c r="K8">
-        <v>167.91920400000001</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>5.8431436100000003</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-13.747331000000001</v>
+      </c>
+      <c r="L8">
+        <v>162.35406699999999</v>
+      </c>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>1303</v>
+        <v>1013</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>-1.7857397450000001</v>
+        <v>1.527419978</v>
       </c>
       <c r="D9" s="2">
-        <v>4.7954809999999999E-3</v>
+        <v>-1.2114337610000001</v>
       </c>
       <c r="E9" s="2">
-        <v>0.52272726999999997</v>
+        <v>4.5227272699999999</v>
       </c>
       <c r="F9" s="2">
-        <v>-7.8398760000000003</v>
+        <v>12.341942100000001</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
-        <v>2.97415918</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1.07954478</v>
+        <v>-0.78145359999999997</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J9" s="2">
-        <v>-20.224875000000001</v>
-      </c>
-      <c r="K9">
-        <v>153.072337</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>-4.0094307999999996</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-6.5524909999999998</v>
+      </c>
+      <c r="L9">
+        <v>171.996568</v>
+      </c>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>3143</v>
+        <v>1015</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.81011421699999997</v>
+        <v>1.0905258849999999</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.536871243</v>
+        <v>-0.22422335099999999</v>
       </c>
       <c r="E10" s="2">
-        <v>0.52272726999999997</v>
+        <v>-3.4772726999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>-7.8398760000000003</v>
+        <v>3.9783057899999998</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2">
-        <v>6.9853069000000003</v>
-      </c>
-      <c r="I10" s="2">
-        <v>3.1762810799999999</v>
+        <v>2.2727576900000002</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J10" s="2">
-        <v>-51.671776000000001</v>
-      </c>
-      <c r="K10">
-        <v>140.94058999999999</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>-8.3781277000000003</v>
+      </c>
+      <c r="K10" s="2">
+        <v>12.133889</v>
+      </c>
+      <c r="L10">
+        <v>50.656300999999999</v>
+      </c>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>-2.1857333520000002</v>
+        <v>1.717026011</v>
       </c>
       <c r="D11" s="2">
-        <v>2.2444299010000002</v>
+        <v>-0.94737999900000003</v>
       </c>
       <c r="E11" s="2">
-        <v>-1.4772727000000001</v>
+        <v>3.5227272699999999</v>
       </c>
       <c r="F11" s="2">
-        <v>-5.9307850999999996</v>
+        <v>4.2964875999999999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2">
-        <v>3.4015796800000002</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-5.5001901999999996</v>
+        <v>-1.1278074</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J11" s="2">
-        <v>-17.081873999999999</v>
-      </c>
-      <c r="K11">
-        <v>143.37455600000001</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>-4.4480874000000004</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-1.7534467</v>
+      </c>
+      <c r="L11">
+        <v>220.69427400000001</v>
+      </c>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>3140</v>
+        <v>1019</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>0.23289272599999999</v>
+        <v>-1.2624774590000001</v>
       </c>
       <c r="D12" s="2">
-        <v>0.177317433</v>
+        <v>0.40135430999999999</v>
       </c>
       <c r="E12" s="2">
-        <v>-1.4772727000000001</v>
+        <v>2.5227272699999999</v>
       </c>
       <c r="F12" s="2">
-        <v>-5.9307850999999996</v>
+        <v>-1.7489669000000001</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="2">
-        <v>0.16314783999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-0.71614319999999998</v>
+        <v>5.7142699999999996E-3</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J12" s="2">
-        <v>2.1245691500000001</v>
-      </c>
-      <c r="K12">
-        <v>50.495852999999997</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>-0.46071380000000001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3.0821698799999999</v>
+      </c>
+      <c r="L12">
+        <v>26.378551999999999</v>
+      </c>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1021</v>
       </c>
@@ -979,67 +1027,73 @@
       <c r="H13" s="2">
         <v>-0.56104659999999995</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.35368948</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>6.4196106799999999</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>45.195062999999998</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>0.16268233500000001</v>
+        <v>1.2282101809999999</v>
       </c>
       <c r="D14" s="2">
-        <v>2.7003266030000002</v>
+        <v>-1.3758521829999999</v>
       </c>
       <c r="E14" s="2">
-        <v>-1.4772727000000001</v>
+        <v>2.5227272699999999</v>
       </c>
       <c r="F14" s="2">
-        <v>-5.9307850999999996</v>
+        <v>-1.7489669000000001</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="2">
-        <v>-0.56104659999999995</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.35368948</v>
+        <v>1.4226164100000001</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J14" s="2">
-        <v>6.4196106799999999</v>
-      </c>
-      <c r="K14">
-        <v>124.398298</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>3.11374387</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.60405487999999996</v>
+      </c>
+      <c r="L14">
+        <v>183.64984899999999</v>
+      </c>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>1276</v>
+        <v>1243</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>-4.1274412000000003E-2</v>
+        <v>0.16268233500000001</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.35359887299999998</v>
+        <v>2.7003266030000002</v>
       </c>
       <c r="E15" s="2">
         <v>-1.4772727000000001</v>
@@ -1051,404 +1105,437 @@
         <v>10</v>
       </c>
       <c r="H15" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1.6095800099999999</v>
+        <v>-0.56104659999999995</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J15" s="2">
-        <v>11.4616159</v>
-      </c>
-      <c r="K15">
-        <v>-15.778304</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>0.35368948</v>
+      </c>
+      <c r="K15" s="2">
+        <v>6.4196106799999999</v>
+      </c>
+      <c r="L15">
+        <v>124.398298</v>
+      </c>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>1009</v>
+        <v>1244</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>0.19368943799999999</v>
+        <v>0.93138003599999997</v>
       </c>
       <c r="D16" s="2">
-        <v>0.107142852</v>
+        <v>0.52568503200000005</v>
       </c>
       <c r="E16" s="2">
-        <v>1.5227272700000001</v>
+        <v>4.5227272699999999</v>
       </c>
       <c r="F16" s="2">
-        <v>-5.7944215000000003</v>
+        <v>12.341942100000001</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2">
-        <v>-1.1278074</v>
-      </c>
-      <c r="I16" s="2">
-        <v>-2.1924725</v>
+        <v>1.62927708</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J16" s="2">
-        <v>9.6271556</v>
-      </c>
-      <c r="K16">
-        <v>151.21848199999999</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>6.8936465499999997</v>
+      </c>
+      <c r="K16" s="2">
+        <v>23.200607399999999</v>
+      </c>
+      <c r="L16">
+        <v>85.385323999999997</v>
+      </c>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>3116</v>
+        <v>1245</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>-0.135269521</v>
+        <v>0.21691321</v>
       </c>
       <c r="D17" s="2">
-        <v>0.88213286700000004</v>
+        <v>-1.058263744</v>
       </c>
       <c r="E17" s="2">
-        <v>1.5227272700000001</v>
+        <v>-2.4772726999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>-5.7944215000000003</v>
+        <v>-1.9762397</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="2">
-        <v>-0.84442700000000004</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-1.7609614</v>
+        <v>0.14505462999999999</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J17" s="2">
-        <v>7.9851299600000001</v>
-      </c>
-      <c r="K17">
-        <v>68.219249000000005</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>-0.83446920000000002</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.8055012399999999</v>
+      </c>
+      <c r="L17">
+        <v>160.734274</v>
+      </c>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>3220</v>
+        <v>1247</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>-0.102510199</v>
+        <v>0.14966032300000001</v>
       </c>
       <c r="D18" s="2">
-        <v>0.30052773300000002</v>
+        <v>1.0639538959999999</v>
       </c>
       <c r="E18" s="2">
-        <v>1.5227272700000001</v>
+        <v>3.5227272699999999</v>
       </c>
       <c r="F18" s="2">
-        <v>-5.7944215000000003</v>
+        <v>4.2964875999999999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2">
-        <v>5.7142699999999996E-3</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-0.46642810000000001</v>
+        <v>-0.56104659999999995</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J18" s="2">
-        <v>3.0590530500000002</v>
-      </c>
-      <c r="K18">
-        <v>188.93338199999999</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>-2.4515433999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.68163425</v>
+      </c>
+      <c r="L18">
+        <v>141.80726799999999</v>
+      </c>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>0.68240626000000004</v>
+        <v>0.46104577699999999</v>
       </c>
       <c r="D19" s="2">
-        <v>4.0002309E-2</v>
+        <v>-0.49209651500000001</v>
       </c>
       <c r="E19" s="2">
-        <v>1.5227272700000001</v>
+        <v>2.5227272699999999</v>
       </c>
       <c r="F19" s="2">
-        <v>-5.7944215000000003</v>
+        <v>-1.7489669000000001</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="2">
-        <v>7.3034589999999996E-2</v>
-      </c>
-      <c r="I19" s="2">
-        <v>-0.36391760000000001</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J19" s="2">
-        <v>2.6689707500000002</v>
-      </c>
-      <c r="K19">
-        <v>121.553439</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>-4.0351714999999997</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5.5602848700000003</v>
+      </c>
+      <c r="L19">
+        <v>106.69883799999999</v>
+      </c>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>0.21691321</v>
+        <v>0.68240626000000004</v>
       </c>
       <c r="D20" s="2">
-        <v>-1.058263744</v>
+        <v>4.0002309E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>-2.4772726999999999</v>
+        <v>1.5227272700000001</v>
       </c>
       <c r="F20" s="2">
-        <v>-1.9762397</v>
+        <v>-5.7944215000000003</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="2">
-        <v>0.14505462999999999</v>
-      </c>
-      <c r="I20" s="2">
-        <v>-0.83446920000000002</v>
+        <v>7.3034589999999996E-2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J20" s="2">
-        <v>2.8055012399999999</v>
-      </c>
-      <c r="K20">
-        <v>160.734274</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>-0.36391760000000001</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2.6689707500000002</v>
+      </c>
+      <c r="L20">
+        <v>121.553439</v>
+      </c>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>1301</v>
+        <v>1251</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.25006392599999999</v>
+        <v>0.75817198500000005</v>
       </c>
       <c r="D21" s="2">
-        <v>1.0375999890000001</v>
+        <v>-1.3424471899999999</v>
       </c>
       <c r="E21" s="2">
-        <v>-2.4772726999999999</v>
+        <v>-4.4772727000000003</v>
       </c>
       <c r="F21" s="2">
-        <v>-1.9762397</v>
+        <v>11.9328512</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2">
-        <v>5.7142699999999996E-3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-0.48928509999999997</v>
+        <v>-0.84442700000000004</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J21" s="2">
-        <v>3.0808711799999999</v>
-      </c>
-      <c r="K21">
-        <v>-33.582604000000003</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>3.3056006899999999</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-6.9842579999999996</v>
+      </c>
+      <c r="L21">
+        <v>111.46267400000001</v>
+      </c>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>1294</v>
+        <v>1255</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>5.8548403999999998E-2</v>
+        <v>0.58757288399999996</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.69057148999999995</v>
+        <v>3.8390036000000002E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>-2.4772726999999999</v>
+        <v>-0.47727269999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>-1.9762397</v>
+        <v>-7.8853305999999996</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="2">
-        <v>-1.1278074</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2.3187572699999999</v>
+        <v>0.28909469999999998</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J22" s="2">
-        <v>5.3209817499999996</v>
-      </c>
-      <c r="K22">
-        <v>107.62712000000001</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>-0.61310640000000005</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.81255668000000003</v>
+      </c>
+      <c r="L22">
+        <v>63.745367999999999</v>
+      </c>
       <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>3167</v>
+        <v>1276</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>0.39075512000000001</v>
+        <v>-4.1274412000000003E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>0.34530628600000002</v>
+        <v>-0.35359887299999998</v>
       </c>
       <c r="E23" s="2">
-        <v>-2.4772726999999999</v>
+        <v>-1.4772727000000001</v>
       </c>
       <c r="F23" s="2">
-        <v>-1.9762397</v>
+        <v>-5.9307850999999996</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="2">
-        <v>-1.1278074</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.3187572699999999</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J23" s="2">
-        <v>5.3209817499999996</v>
-      </c>
-      <c r="K23">
-        <v>183.74356399999999</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>1.6095800099999999</v>
+      </c>
+      <c r="K23" s="2">
+        <v>11.4616159</v>
+      </c>
+      <c r="L23">
+        <v>-15.778304</v>
+      </c>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>1248</v>
+        <v>1286</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>0.46104577699999999</v>
+        <v>-0.429013478</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.49209651500000001</v>
+        <v>-0.76928423700000004</v>
       </c>
       <c r="E24" s="2">
-        <v>2.5227272699999999</v>
+        <v>0.52272726999999997</v>
       </c>
       <c r="F24" s="2">
-        <v>-1.7489669000000001</v>
+        <v>-7.8398760000000003</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I24" s="2">
-        <v>-4.0351714999999997</v>
+        <v>-0.84442700000000004</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J24" s="2">
-        <v>5.5602848700000003</v>
-      </c>
-      <c r="K24">
-        <v>106.69883799999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.91653439999999997</v>
+      </c>
+      <c r="K24" s="2">
+        <v>9.7123670299999993</v>
+      </c>
+      <c r="L24">
+        <v>180.521061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1004</v>
+        <v>1294</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.72471277000000001</v>
+        <v>5.8548403999999998E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>-0.432496557</v>
+        <v>-0.69057148999999995</v>
       </c>
       <c r="E25" s="2">
-        <v>2.5227272699999999</v>
+        <v>-2.4772726999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>-1.7489669000000001</v>
+        <v>-1.9762397</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="2">
-        <v>-0.27766619999999997</v>
-      </c>
-      <c r="I25" s="2">
-        <v>-1.1756053</v>
+        <v>-1.1278074</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J25" s="2">
-        <v>3.5777928700000001</v>
-      </c>
-      <c r="K25">
-        <v>71.615228999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.3187572699999999</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5.3209817499999996</v>
+      </c>
+      <c r="L25">
+        <v>107.62712000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>1019</v>
+        <v>1301</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>-1.2624774590000001</v>
+        <v>-0.25006392599999999</v>
       </c>
       <c r="D26" s="2">
-        <v>0.40135430999999999</v>
+        <v>1.0375999890000001</v>
       </c>
       <c r="E26" s="2">
-        <v>2.5227272699999999</v>
+        <v>-2.4772726999999999</v>
       </c>
       <c r="F26" s="2">
-        <v>-1.7489669000000001</v>
+        <v>-1.9762397</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>10</v>
@@ -1456,378 +1543,411 @@
       <c r="H26" s="2">
         <v>5.7142699999999996E-3</v>
       </c>
-      <c r="I26" s="2">
-        <v>-0.46071380000000001</v>
+      <c r="I26" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J26" s="2">
-        <v>3.0821698799999999</v>
-      </c>
-      <c r="K26">
-        <v>26.378551999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.48928509999999997</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3.0808711799999999</v>
+      </c>
+      <c r="L26">
+        <v>-33.582604000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>1242</v>
+        <v>1302</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>1.2282101809999999</v>
+        <v>0.78553246300000001</v>
       </c>
       <c r="D27" s="2">
-        <v>-1.3758521829999999</v>
+        <v>-0.56013075199999995</v>
       </c>
       <c r="E27" s="2">
-        <v>2.5227272699999999</v>
+        <v>4.5227272699999999</v>
       </c>
       <c r="F27" s="2">
-        <v>-1.7489669000000001</v>
+        <v>12.341942100000001</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.13453626</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4.6560687600000001</v>
+      </c>
+      <c r="K27" s="2">
+        <v>17.094544899999999</v>
+      </c>
+      <c r="L27">
+        <v>68.069913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>1303</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-1.7857397450000001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.7954809999999999E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.52272726999999997</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-7.8398760000000003</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="2">
-        <v>1.4226164100000001</v>
-      </c>
-      <c r="I27" s="2">
-        <v>3.11374387</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.60405487999999996</v>
-      </c>
-      <c r="K27">
-        <v>183.64984899999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>1015</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.0905258849999999</v>
-      </c>
-      <c r="D28" s="2">
-        <v>-0.22422335099999999</v>
-      </c>
-      <c r="E28" s="2">
-        <v>-3.4772726999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3.9783057899999998</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H28" s="2">
-        <v>2.2727576900000002</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-8.3781277000000003</v>
+        <v>2.97415918</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J28" s="2">
-        <v>12.133889</v>
-      </c>
-      <c r="K28">
-        <v>50.656300999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.07954478</v>
+      </c>
+      <c r="K28" s="2">
+        <v>-20.224875000000001</v>
+      </c>
+      <c r="L28">
+        <v>153.072337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>3176</v>
+        <v>3116</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.79939059800000001</v>
+        <v>-0.135269521</v>
       </c>
       <c r="D29" s="2">
-        <v>1.2007770230000001</v>
+        <v>0.88213286700000004</v>
       </c>
       <c r="E29" s="2">
-        <v>-3.4772726999999999</v>
+        <v>1.5227272700000001</v>
       </c>
       <c r="F29" s="2">
-        <v>3.9783057899999998</v>
+        <v>-5.7944215000000003</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="2">
-        <v>0.63979543999999999</v>
-      </c>
-      <c r="I29" s="2">
-        <v>-2.6998726</v>
+        <v>-0.84442700000000004</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J29" s="2">
-        <v>5.6374658599999998</v>
-      </c>
-      <c r="K29">
-        <v>143.201672</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.7609614</v>
+      </c>
+      <c r="K29" s="2">
+        <v>7.9851299600000001</v>
+      </c>
+      <c r="L29">
+        <v>68.219249000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>3166</v>
+        <v>3122</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>0.64527839200000003</v>
+        <v>-0.96096531500000004</v>
       </c>
       <c r="D30" s="2">
-        <v>-0.290473971</v>
+        <v>-0.30147911599999999</v>
       </c>
       <c r="E30" s="2">
-        <v>-3.4772726999999999</v>
+        <v>3.5227272699999999</v>
       </c>
       <c r="F30" s="2">
-        <v>3.9783057899999998</v>
+        <v>4.2964875999999999</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="2">
-        <v>-0.42170619999999998</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.99125823000000002</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J30" s="2">
-        <v>1.4144876200000001</v>
-      </c>
-      <c r="K30">
-        <v>145.51759899999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-5.4463593000000001</v>
+      </c>
+      <c r="K30" s="2">
+        <v>-2.9709872000000002</v>
+      </c>
+      <c r="L30">
+        <v>156.66850700000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>3200</v>
+        <v>3125</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>0.271806349</v>
+        <v>-0.95302683300000002</v>
       </c>
       <c r="D31" s="2">
-        <v>-0.17197183099999999</v>
+        <v>2.2927592990000001</v>
       </c>
       <c r="E31" s="2">
-        <v>-3.4772726999999999</v>
+        <v>4.5227272699999999</v>
       </c>
       <c r="F31" s="2">
-        <v>3.9783057899999998</v>
+        <v>12.341942100000001</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I31" s="2">
-        <v>4.4319557400000003</v>
+        <v>7.3034589999999996E-2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J31" s="2">
-        <v>-2.5219729000000002</v>
-      </c>
-      <c r="K31">
-        <v>49.678787999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.14481379999999999</v>
+      </c>
+      <c r="K31" s="2">
+        <v>3.9935526299999999</v>
+      </c>
+      <c r="L31">
+        <v>186.48440299999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>3212</v>
+        <v>3140</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>0.87870700599999996</v>
+        <v>0.23289272599999999</v>
       </c>
       <c r="D32" s="2">
-        <v>-1.5292250009999999</v>
+        <v>0.177317433</v>
       </c>
       <c r="E32" s="2">
+        <v>-1.4772727000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-5.9307850999999996</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.16314783999999999</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2">
+        <v>-0.71614319999999998</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2.1245691500000001</v>
+      </c>
+      <c r="L32">
+        <v>50.495852999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>3143</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-0.81011421699999997</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-0.536871243</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.52272726999999997</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-7.8398760000000003</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2">
+        <v>6.9853069000000003</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3.1762810799999999</v>
+      </c>
+      <c r="K33" s="2">
+        <v>-51.671776000000001</v>
+      </c>
+      <c r="L33">
+        <v>140.94058999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>3166</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.64527839200000003</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-0.290473971</v>
+      </c>
+      <c r="E34" s="2">
         <v>-3.4772726999999999</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F34" s="2">
         <v>3.9783057899999998</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I32" s="2">
-        <v>4.4319557400000003</v>
-      </c>
-      <c r="J32" s="2">
-        <v>-2.5219729000000002</v>
-      </c>
-      <c r="K32">
-        <v>86.109937000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>3122</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2">
-        <v>-0.96096531500000004</v>
-      </c>
-      <c r="D33" s="2">
-        <v>-0.30147911599999999</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3.5227272699999999</v>
-      </c>
-      <c r="F33" s="2">
-        <v>4.2964875999999999</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I33" s="2">
-        <v>-5.4463593000000001</v>
-      </c>
-      <c r="J33" s="2">
-        <v>-2.9709872000000002</v>
-      </c>
-      <c r="K33">
-        <v>156.66850700000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>1016</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.717026011</v>
-      </c>
-      <c r="D34" s="2">
-        <v>-0.94737999900000003</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3.5227272699999999</v>
-      </c>
-      <c r="F34" s="2">
-        <v>4.2964875999999999</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H34" s="2">
-        <v>-1.1278074</v>
-      </c>
-      <c r="I34" s="2">
-        <v>-4.4480874000000004</v>
+        <v>-0.42170619999999998</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J34" s="2">
-        <v>-1.7534467</v>
-      </c>
-      <c r="K34">
-        <v>220.69427400000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.99125823000000002</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.4144876200000001</v>
+      </c>
+      <c r="L34">
+        <v>145.51759899999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>3173</v>
+        <v>3167</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>7.4323696999999994E-2</v>
+        <v>0.39075512000000001</v>
       </c>
       <c r="D35" s="2">
-        <v>-0.85720733500000001</v>
+        <v>0.34530628600000002</v>
       </c>
       <c r="E35" s="2">
-        <v>3.5227272699999999</v>
+        <v>-2.4772726999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>4.2964875999999999</v>
+        <v>-1.9762397</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="2">
         <v>-1.1278074</v>
       </c>
-      <c r="I35" s="2">
-        <v>-4.4480874000000004</v>
+      <c r="I35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J35" s="2">
-        <v>-1.7534467</v>
-      </c>
-      <c r="K35">
-        <v>86.134162000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.3187572699999999</v>
+      </c>
+      <c r="K35" s="2">
+        <v>5.3209817499999996</v>
+      </c>
+      <c r="L35">
+        <v>183.74356399999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>1247</v>
+        <v>3170</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>0.14966032300000001</v>
+        <v>0.81315173100000004</v>
       </c>
       <c r="D36" s="2">
-        <v>1.0639538959999999</v>
+        <v>-1.0960860219999999</v>
       </c>
       <c r="E36" s="2">
-        <v>3.5227272699999999</v>
+        <v>-4.4772727000000003</v>
       </c>
       <c r="F36" s="2">
-        <v>4.2964875999999999</v>
+        <v>11.9328512</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="2">
-        <v>-0.56104659999999995</v>
-      </c>
-      <c r="I36" s="2">
-        <v>-2.4515433999999998</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J36" s="2">
-        <v>0.68163425</v>
-      </c>
-      <c r="K36">
-        <v>141.80726799999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.8431436100000003</v>
+      </c>
+      <c r="K36" s="2">
+        <v>-13.747331000000001</v>
+      </c>
+      <c r="L36">
+        <v>120.424362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>3190</v>
+        <v>3173</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>-1.0034626950000001</v>
+        <v>7.4323696999999994E-2</v>
       </c>
       <c r="D37" s="2">
-        <v>0.19136285</v>
+        <v>-0.85720733500000001</v>
       </c>
       <c r="E37" s="2">
         <v>3.5227272699999999</v>
@@ -1839,30 +1959,33 @@
         <v>11</v>
       </c>
       <c r="H37" s="2">
-        <v>-0.49372630000000001</v>
-      </c>
-      <c r="I37" s="2">
-        <v>-2.2143923000000001</v>
+        <v>-1.1278074</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J37" s="2">
-        <v>0.97087517000000001</v>
-      </c>
-      <c r="K37">
-        <v>131.41501199999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-4.4480874000000004</v>
+      </c>
+      <c r="K37" s="2">
+        <v>-1.7534467</v>
+      </c>
+      <c r="L37">
+        <v>86.134162000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>1251</v>
+        <v>3175</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>0.75817198500000005</v>
+        <v>-1.056822251</v>
       </c>
       <c r="D38" s="2">
-        <v>-1.3424471899999999</v>
+        <v>0.281535751</v>
       </c>
       <c r="E38" s="2">
         <v>-4.4772727000000003</v>
@@ -1874,266 +1997,290 @@
         <v>11</v>
       </c>
       <c r="H38" s="2">
-        <v>-0.84442700000000004</v>
-      </c>
-      <c r="I38" s="2">
-        <v>3.3056006899999999</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J38" s="2">
-        <v>-6.9842579999999996</v>
-      </c>
-      <c r="K38">
-        <v>111.46267400000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.8431436100000003</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-13.747331000000001</v>
+      </c>
+      <c r="L38">
+        <v>170.375181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>1012</v>
+        <v>3176</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>0.94756060499999994</v>
+        <v>-0.79939059800000001</v>
       </c>
       <c r="D39" s="2">
-        <v>-0.56303946599999999</v>
+        <v>1.2007770230000001</v>
       </c>
       <c r="E39" s="2">
-        <v>-4.4772727000000003</v>
+        <v>-3.4772726999999999</v>
       </c>
       <c r="F39" s="2">
-        <v>11.9328512</v>
+        <v>3.9783057899999998</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I39" s="2">
-        <v>5.8431436100000003</v>
+        <v>0.63979543999999999</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J39" s="2">
-        <v>-13.747331000000001</v>
-      </c>
-      <c r="K39">
-        <v>162.35406699999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-2.6998726</v>
+      </c>
+      <c r="K39" s="2">
+        <v>5.6374658599999998</v>
+      </c>
+      <c r="L39">
+        <v>143.201672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>3170</v>
+        <v>3189</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>0.81315173100000004</v>
+        <v>0.514842723</v>
       </c>
       <c r="D40" s="2">
-        <v>-1.0960860219999999</v>
+        <v>-0.60672387999999999</v>
       </c>
       <c r="E40" s="2">
-        <v>-4.4772727000000003</v>
+        <v>-0.47727269999999999</v>
       </c>
       <c r="F40" s="2">
-        <v>11.9328512</v>
+        <v>-7.8853305999999996</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I40" s="2">
-        <v>5.8431436100000003</v>
+        <v>0.35171530000000001</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J40" s="2">
-        <v>-13.747331000000001</v>
-      </c>
-      <c r="K40">
-        <v>120.424362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-0.6429935</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.31877253</v>
+      </c>
+      <c r="L40">
+        <v>174.36840100000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>3175</v>
+        <v>3190</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>-1.056822251</v>
+        <v>-1.0034626950000001</v>
       </c>
       <c r="D41" s="2">
-        <v>0.281535751</v>
+        <v>0.19136285</v>
       </c>
       <c r="E41" s="2">
-        <v>-4.4772727000000003</v>
+        <v>3.5227272699999999</v>
       </c>
       <c r="F41" s="2">
-        <v>11.9328512</v>
+        <v>4.2964875999999999</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="2">
-        <v>-1.4111879000000001</v>
-      </c>
-      <c r="I41" s="2">
-        <v>5.8431436100000003</v>
+        <v>-0.49372630000000001</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J41" s="2">
-        <v>-13.747331000000001</v>
-      </c>
-      <c r="K41">
-        <v>170.375181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-2.2143923000000001</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.97087517000000001</v>
+      </c>
+      <c r="L41">
+        <v>131.41501199999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>1013</v>
+        <v>3200</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>1.527419978</v>
+        <v>0.271806349</v>
       </c>
       <c r="D42" s="2">
-        <v>-1.2114337610000001</v>
+        <v>-0.17197183099999999</v>
       </c>
       <c r="E42" s="2">
-        <v>4.5227272699999999</v>
+        <v>-3.4772726999999999</v>
       </c>
       <c r="F42" s="2">
-        <v>12.341942100000001</v>
+        <v>3.9783057899999998</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="2">
-        <v>-0.78145359999999997</v>
-      </c>
-      <c r="I42" s="2">
-        <v>-4.0094307999999996</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J42" s="2">
-        <v>-6.5524909999999998</v>
-      </c>
-      <c r="K42">
-        <v>171.996568</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.4319557400000003</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-2.5219729000000002</v>
+      </c>
+      <c r="L42">
+        <v>49.678787999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>3125</v>
+        <v>3206</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.95302683300000002</v>
+        <v>3.4601606E-2</v>
       </c>
       <c r="D43" s="2">
-        <v>2.2927592990000001</v>
+        <v>-0.61105751200000002</v>
       </c>
       <c r="E43" s="2">
-        <v>4.5227272699999999</v>
+        <v>-0.47727269999999999</v>
       </c>
       <c r="F43" s="2">
-        <v>12.341942100000001</v>
+        <v>-7.8853305999999996</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="2">
-        <v>7.3034589999999996E-2</v>
-      </c>
-      <c r="I43" s="2">
-        <v>-0.14481379999999999</v>
+        <v>2.19133822</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J43" s="2">
-        <v>3.9935526299999999</v>
-      </c>
-      <c r="K43">
-        <v>186.48440299999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-1.5209953000000001</v>
+      </c>
+      <c r="K43" s="2">
+        <v>-14.187262</v>
+      </c>
+      <c r="L43">
+        <v>61.726565999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>1302</v>
+        <v>3212</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>0.78553246300000001</v>
+        <v>0.87870700599999996</v>
       </c>
       <c r="D44" s="2">
-        <v>-0.56013075199999995</v>
+        <v>-1.5292250009999999</v>
       </c>
       <c r="E44" s="2">
-        <v>4.5227272699999999</v>
+        <v>-3.4772726999999999</v>
       </c>
       <c r="F44" s="2">
-        <v>12.341942100000001</v>
+        <v>3.9783057899999998</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="2">
-        <v>1.13453626</v>
-      </c>
-      <c r="I44" s="2">
-        <v>4.6560687600000001</v>
+        <v>-1.4111879000000001</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J44" s="2">
-        <v>17.094544899999999</v>
-      </c>
-      <c r="K44">
-        <v>68.069913</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.4319557400000003</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-2.5219729000000002</v>
+      </c>
+      <c r="L44">
+        <v>86.109937000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>1244</v>
+        <v>3220</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
       <c r="C45" s="2">
-        <v>0.93138003599999997</v>
+        <v>-0.102510199</v>
       </c>
       <c r="D45" s="2">
-        <v>0.52568503200000005</v>
+        <v>0.30052773300000002</v>
       </c>
       <c r="E45" s="2">
-        <v>4.5227272699999999</v>
+        <v>1.5227272700000001</v>
       </c>
       <c r="F45" s="2">
-        <v>12.341942100000001</v>
+        <v>-5.7944215000000003</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="2">
-        <v>1.62927708</v>
-      </c>
-      <c r="I45" s="2">
-        <v>6.8936465499999997</v>
+        <v>5.7142699999999996E-3</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J45" s="2">
-        <v>23.200607399999999</v>
-      </c>
-      <c r="K45">
-        <v>85.385323999999997</v>
+        <v>-0.46642810000000001</v>
+      </c>
+      <c r="K45" s="2">
+        <v>3.0590530500000002</v>
+      </c>
+      <c r="L45">
+        <v>188.93338199999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
-    <sortCondition ref="F1:F46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L47">
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2141,6 +2288,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1ec1d487-840c-40ff-aca1-00ff13008544" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="068132b6-27af-4cc5-9624-46e0bc309f9c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080DE0AC601CE7945A16C28BE7D604718" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7200742d51933ad5859751156d985908">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="068132b6-27af-4cc5-9624-46e0bc309f9c" xmlns:ns3="1ec1d487-840c-40ff-aca1-00ff13008544" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef3bb859774f4d5f12e6e11e5f5551df" ns2:_="" ns3:_="">
     <xsd:import namespace="068132b6-27af-4cc5-9624-46e0bc309f9c"/>
@@ -2383,27 +2550,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC63A6C3-404C-4A28-BB1A-FC191EE6A190}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ec1d487-840c-40ff-aca1-00ff13008544"/>
+    <ds:schemaRef ds:uri="068132b6-27af-4cc5-9624-46e0bc309f9c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1ec1d487-840c-40ff-aca1-00ff13008544" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="068132b6-27af-4cc5-9624-46e0bc309f9c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EED854-9EAE-4AEF-909D-8255550CB16E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E1A9A42-C128-4636-9B44-EF4CC1F6CF4C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2420,23 +2586,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EED854-9EAE-4AEF-909D-8255550CB16E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC63A6C3-404C-4A28-BB1A-FC191EE6A190}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1ec1d487-840c-40ff-aca1-00ff13008544"/>
-    <ds:schemaRef ds:uri="068132b6-27af-4cc5-9624-46e0bc309f9c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>